--- a/BE_LTD_Dispatcher/Data/Input.xlsx
+++ b/BE_LTD_Dispatcher/Data/Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bradsol-my.sharepoint.com/personal/sagarreddy_shyamala_bradsol_com/Documents/Documents/UiPath/BE_LTD_Dispatcher/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bradsol-my.sharepoint.com/personal/sagarreddy_shyamala_bradsol_com/Documents/Documents/GitHub/brad-uipath/BE_LTD_Dispatcher/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_D14220F292C9FB7FDD396B4F0BE52C74744E3303" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27694DC3-2C53-48B6-866C-8E4B36BAAA3A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_825EA1E492697F444B8A72AB8D8384667F1AAECA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4778662E-E479-4D4D-B512-BF26D82FFD57}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>Attachment_Status</t>
+    <t>Attachment Status</t>
   </si>
   <si>
     <t>Attachment Path</t>
   </si>
   <si>
+    <t>Attachment Protected Status</t>
+  </si>
+  <si>
+    <t>Attachment Unprotected Status</t>
+  </si>
+  <si>
     <t>Statement SBI Bank</t>
   </si>
   <si>
@@ -43,19 +49,25 @@
     <t>Attachment Found</t>
   </si>
   <si>
-    <t>C:\Users\TEMP\OneDrive - bradsol.com\Documents\UiPath\BE_LTD_Dispatcher\Data\Input\Axis Bank\Vidya Sagar Reddy.pdf</t>
+    <t>C:\Users\TEMP\OneDrive - bradsol.com\Documents\GitHub\brad-uipath\BE_LTD_Dispatcher\Data\Input\Axis Bank\Vidya Sagar Reddy.pdf</t>
+  </si>
+  <si>
+    <t>Password Found</t>
+  </si>
+  <si>
+    <t>Password Removed</t>
   </si>
   <si>
     <t>Statement ICICI Bank</t>
   </si>
   <si>
-    <t>C:\Users\TEMP\OneDrive - bradsol.com\Documents\UiPath\BE_LTD_Dispatcher\Data\Input\ICICI Bank\Vidya Sagar Reddy.pdf</t>
+    <t>C:\Users\TEMP\OneDrive - bradsol.com\Documents\GitHub\brad-uipath\BE_LTD_Dispatcher\Data\Input\ICICI Bank\Vidya Sagar Reddy.pdf</t>
   </si>
   <si>
     <t>Statement HDFC Bank</t>
   </si>
   <si>
-    <t>C:\Users\TEMP\OneDrive - bradsol.com\Documents\UiPath\BE_LTD_Dispatcher\Data\Input\HDFC Bank\Vidya Sagar Reddy.pdf</t>
+    <t>C:\Users\TEMP\OneDrive - bradsol.com\Documents\GitHub\brad-uipath\BE_LTD_Dispatcher\Data\Input\HDFC Bank\Vidya Sagar Reddy.pdf</t>
   </si>
 </sst>
 </file>
@@ -394,20 +406,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="117.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,45 +429,69 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
